--- a/M06/Files/3002 進貨交易查詢.xlsx
+++ b/M06/Files/3002 進貨交易查詢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>廠商</x:t>
   </x:si>
@@ -43,13 +43,13 @@
     <x:t>銷帳狀態</x:t>
   </x:si>
   <x:si>
-    <x:t>0071 味津麵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0000020001117 - 二坪麵線</x:t>
+    <x:t>stkUpd 庫存調整</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312060002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327148787 - 香蕉乾</x:t>
   </x:si>
   <x:si>
     <x:t>應稅</x:t>
@@ -58,100 +58,304 @@
     <x:t>未結</x:t>
   </x:si>
   <x:si>
-    <x:t>0076 興運</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710008314158 - 金味王1.6 kg 醬油</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0090 水里鄉農會梅品</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270007</x:t>
+    <x:t>202312090001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712702410860 - 魚池日月潭紅茶餅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312110003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200090060100 - 初秋高麗菜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>免稅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312110004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200090790100 - 葡萄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312180008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711588837136 - 台酒特級紅標純米酒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312190001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710111800418 - 農好蓬萊麵-蔥香肉燥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312190002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200080770018 - 二坪枝仔冰18元</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312190003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712120781634 - 池上青蔥小餅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312200001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0002008027027 - 瑞興長秈米-7kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312200002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711588311025 - 台酒金牌(玻)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312210001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200090300140 - 花格格蜜棗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200090300120 - 花格格蜜棗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4717202230321 - 紅茶梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200080770010 - 二坪枝仔冰10元</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710015116158 - 關山米乖乖五香</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712602682145 - 飛魚餅原味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070230550 - 杉林溪-高山春茶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712425010309 - 雪柔廚房紙巾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070011050 - 香妃荔枝蜜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710312010753 - 鱷魚蚊香(30入)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632135 - 蜂蜜梅醋-中瓶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710746111378 - 西螺農會-蔭油膏</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958040190 - 酸菜白肉鍋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712070722039 - 霧峰香米12kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712425010712 - 春風抽取衛生紙10小包串</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300014</x:t>
   </x:si>
   <x:si>
     <x:t>4710958630537 - 梅精糖180g(盒)</x:t>
   </x:si>
   <x:si>
-    <x:t>4710958630896 - 日曬三干麵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631312 - 水禮久時釀禮盒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631824 - 車埕咖啡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631831 - 六路咖啡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0357 土庫農</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4718037160784 - 土庫農會爆米花</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0369 黃弘傑蜂蜜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070010150 - 田園龍眼蜜80G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>免稅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070010700 - 田園龍眼蜜700g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070011300 - 田園龍眼蜜1800g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070060500 - 龍眼荔枝蜜700g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0453 石建國</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080820060 - 香菇(小)300g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0474 許月嬌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200081340050 - 醃蘿蔔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200081290055 - 黑柿番茄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0514 陳炳輝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202303270001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080930060 - 有機高麗菜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200081010055 - 有機青花筍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200081050070 - 有機青花椰菜-70</x:t>
+    <x:t>202312300015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630872 - 梅子醬油(小)250ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631121 - 水里鄉農會-鈕扣菇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631176 - 烏梅子醬禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631374 - 牧木ㄦ黑木耳露</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631459 - 隨手包-Q梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631480 - 隨手包-甜菊梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710060006060 - 南僑水晶肥皂液體食器</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710084212041 - 噴效螞蟻殺蟲劑600c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710088460196 - 四季醬油非基改釀造醬油1.6k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710088460363 - 統一四季醬油870ml非基改</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710094032011 - 國聯白蘭漂白水</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710168708309 - 黑人牙膏250g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710186187711 - 白鴿抗菌洗衣精補充(小蒼蘭)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710423869981 - 萬丹紅豆湯單罐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710434811214 - 果汁牛乳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710434811221 - 咖啡牛乳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710444300234 - 南投縣農會山薑洗髮精</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710452210082 - 羅東農會養生豆奶-黑豆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4714127971612 - 竹炭水-小</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4714127971605 - 禾風竹炭水(大)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327269222 - 埔農-美人腿泡麵(肉燥)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711049230070 - 南亞保鮮膜200m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711379003016 - 醜小鴨浴廁劑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202312300039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711459000652 - 原色金針</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -532,19 +736,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I19"/>
+  <x:dimension ref="A1:I52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.530625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.530625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="34.300625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.190625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.060625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="6.450625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="8.150625" style="0" customWidth="1"/>
+    <x:col min="6" max="8" width="6.450625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="11.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -582,7 +785,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="1">
-        <x:v>45012</x:v>
+        <x:v>45266</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>10</x:v>
@@ -591,16 +794,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="3" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="4" t="n">
-        <x:v>2000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>13</x:v>
@@ -608,28 +811,28 @@
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="1">
+        <x:v>45269</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B3" s="1">
-        <x:v>45012</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E3" s="3" t="n">
-        <x:v>86.67</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="4" t="n">
-        <x:v>7800</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>13</x:v>
@@ -637,28 +840,28 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="1">
+        <x:v>45271</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="1">
-        <x:v>45012</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="E4" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="n">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>1250</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
         <x:v>13</x:v>
@@ -666,28 +869,28 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="1">
-        <x:v>45012</x:v>
+        <x:v>45271</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="3" t="n">
-        <x:v>93</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H5" s="4" t="n">
-        <x:v>2790</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
         <x:v>13</x:v>
@@ -695,28 +898,28 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="1">
-        <x:v>45012</x:v>
+        <x:v>45278</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E6" s="3" t="n">
-        <x:v>300</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="4" t="n">
-        <x:v>3000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
         <x:v>13</x:v>
@@ -724,28 +927,28 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B7" s="1">
-        <x:v>45012</x:v>
+        <x:v>45279</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E7" s="3" t="n">
-        <x:v>445</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H7" s="4" t="n">
-        <x:v>2225</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
         <x:v>13</x:v>
@@ -753,28 +956,28 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="1">
-        <x:v>45012</x:v>
+        <x:v>45279</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="3" t="n">
-        <x:v>445</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H8" s="4" t="n">
-        <x:v>2225</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>13</x:v>
@@ -782,28 +985,28 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="1">
-        <x:v>45012</x:v>
+        <x:v>45279</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="4" t="n">
-        <x:v>3600</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>13</x:v>
@@ -811,28 +1014,28 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1">
-        <x:v>45012</x:v>
+        <x:v>45280</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3" t="n">
-        <x:v>105</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="4" t="n">
-        <x:v>1050</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>13</x:v>
@@ -840,28 +1043,28 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1">
-        <x:v>45012</x:v>
+        <x:v>45280</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3" t="n">
-        <x:v>490</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H11" s="4" t="n">
-        <x:v>980</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>13</x:v>
@@ -869,28 +1072,28 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="1">
-        <x:v>45012</x:v>
+        <x:v>45281</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="3" t="n">
-        <x:v>910</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="4" t="n">
-        <x:v>2730</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>13</x:v>
@@ -898,28 +1101,28 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="1">
-        <x:v>45012</x:v>
+        <x:v>45285</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="3" t="n">
-        <x:v>350</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="4" t="n">
-        <x:v>1750</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>13</x:v>
@@ -927,28 +1130,28 @@
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E14" s="3" t="n">
-        <x:v>45</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H14" s="4" t="n">
-        <x:v>270</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
         <x:v>13</x:v>
@@ -956,28 +1159,28 @@
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E15" s="3" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H15" s="4" t="n">
-        <x:v>800</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
         <x:v>13</x:v>
@@ -985,28 +1188,28 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E16" s="3" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H16" s="4" t="n">
-        <x:v>240</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
         <x:v>13</x:v>
@@ -1014,28 +1217,28 @@
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E17" s="3" t="n">
-        <x:v>51</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="4" t="n">
-        <x:v>255</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
         <x:v>13</x:v>
@@ -1043,28 +1246,28 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B18" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E18" s="3" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H18" s="4" t="n">
-        <x:v>86</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
         <x:v>13</x:v>
@@ -1072,30 +1275,987 @@
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B19" s="1">
-        <x:v>45012</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="3" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H19" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B20" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E20" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H20" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E21" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H21" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B22" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E22" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H22" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9">
+      <x:c r="A23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B23" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E23" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H23" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9">
+      <x:c r="A24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B24" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E24" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H24" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9">
+      <x:c r="A25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B25" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E25" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H25" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9">
+      <x:c r="A26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B26" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E26" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H26" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:9">
+      <x:c r="A27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B27" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E27" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H27" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9">
+      <x:c r="A28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B28" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E28" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H28" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:9">
+      <x:c r="A29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B29" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E29" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H29" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:9">
+      <x:c r="A30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B30" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E30" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H30" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9">
+      <x:c r="A31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B31" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E31" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H31" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:9">
+      <x:c r="A32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B32" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H32" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:9">
+      <x:c r="A33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B33" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E33" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H33" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:9">
+      <x:c r="A34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B34" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E34" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H34" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:9">
+      <x:c r="A35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B35" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E35" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H35" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:9">
+      <x:c r="A36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B36" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E36" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H36" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:9">
+      <x:c r="A37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B37" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E37" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H37" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:9">
+      <x:c r="A38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B38" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E38" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H38" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:9">
+      <x:c r="A39" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B39" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E39" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H39" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:9">
+      <x:c r="A40" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B40" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E40" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H40" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:9">
+      <x:c r="A41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B41" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E41" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H41" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
+      <x:c r="A42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B42" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E42" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H42" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:9">
+      <x:c r="A43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B43" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E43" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H43" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
+      <x:c r="A44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B44" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E44" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H44" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
+      <x:c r="A45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B45" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E45" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H45" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:9">
+      <x:c r="A46" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B46" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E46" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="H19" s="4" t="n">
-        <x:v>-43</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
+      <x:c r="H46" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
+      <x:c r="A47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B47" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E47" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H47" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B48" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E48" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H48" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B49" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E49" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H49" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9">
+      <x:c r="A50" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B50" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E50" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H50" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:9">
+      <x:c r="A51" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B51" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E51" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H51" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:9">
+      <x:c r="A52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B52" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E52" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H52" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
